--- a/messy_ecommerce_data.xlsx
+++ b/messy_ecommerce_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24712,918 +24712,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F399796D-C981-4F9C-AD60-C859C3A723ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L15:M20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="348">
-        <item x="54"/>
-        <item x="36"/>
-        <item x="79"/>
-        <item x="328"/>
-        <item x="138"/>
-        <item x="200"/>
-        <item x="266"/>
-        <item x="249"/>
-        <item x="179"/>
-        <item x="161"/>
-        <item x="199"/>
-        <item x="42"/>
-        <item x="331"/>
-        <item x="206"/>
-        <item x="142"/>
-        <item x="204"/>
-        <item x="335"/>
-        <item x="135"/>
-        <item x="103"/>
-        <item x="141"/>
-        <item x="168"/>
-        <item x="65"/>
-        <item x="252"/>
-        <item x="237"/>
-        <item x="306"/>
-        <item x="159"/>
-        <item x="146"/>
-        <item x="201"/>
-        <item x="192"/>
-        <item x="140"/>
-        <item x="299"/>
-        <item x="308"/>
-        <item x="281"/>
-        <item x="338"/>
-        <item x="333"/>
-        <item x="314"/>
-        <item x="212"/>
-        <item x="133"/>
-        <item x="257"/>
-        <item x="136"/>
-        <item x="288"/>
-        <item x="234"/>
-        <item x="56"/>
-        <item x="216"/>
-        <item x="28"/>
-        <item x="71"/>
-        <item x="48"/>
-        <item x="106"/>
-        <item x="63"/>
-        <item x="170"/>
-        <item x="318"/>
-        <item x="273"/>
-        <item x="88"/>
-        <item x="67"/>
-        <item x="324"/>
-        <item x="195"/>
-        <item x="107"/>
-        <item x="255"/>
-        <item x="339"/>
-        <item x="32"/>
-        <item x="93"/>
-        <item x="326"/>
-        <item x="90"/>
-        <item x="2"/>
-        <item x="217"/>
-        <item x="279"/>
-        <item x="285"/>
-        <item x="64"/>
-        <item x="250"/>
-        <item x="46"/>
-        <item x="58"/>
-        <item x="18"/>
-        <item x="171"/>
-        <item x="47"/>
-        <item x="260"/>
-        <item x="271"/>
-        <item x="15"/>
-        <item x="221"/>
-        <item x="153"/>
-        <item x="334"/>
-        <item x="167"/>
-        <item x="62"/>
-        <item x="119"/>
-        <item x="274"/>
-        <item x="96"/>
-        <item x="191"/>
-        <item x="292"/>
-        <item x="60"/>
-        <item x="10"/>
-        <item x="150"/>
-        <item x="6"/>
-        <item x="95"/>
-        <item x="143"/>
-        <item x="298"/>
-        <item x="344"/>
-        <item x="176"/>
-        <item x="215"/>
-        <item x="74"/>
-        <item x="173"/>
-        <item x="263"/>
-        <item x="320"/>
-        <item x="7"/>
-        <item x="317"/>
-        <item x="125"/>
-        <item x="343"/>
-        <item x="55"/>
-        <item x="235"/>
-        <item x="66"/>
-        <item x="97"/>
-        <item x="186"/>
-        <item x="83"/>
-        <item x="313"/>
-        <item x="76"/>
-        <item x="309"/>
-        <item x="104"/>
-        <item x="72"/>
-        <item x="321"/>
-        <item x="124"/>
-        <item x="182"/>
-        <item x="101"/>
-        <item x="267"/>
-        <item x="49"/>
-        <item x="178"/>
-        <item x="51"/>
-        <item x="224"/>
-        <item x="147"/>
-        <item x="19"/>
-        <item x="342"/>
-        <item x="277"/>
-        <item x="254"/>
-        <item x="294"/>
-        <item x="264"/>
-        <item x="5"/>
-        <item x="329"/>
-        <item x="180"/>
-        <item x="61"/>
-        <item x="26"/>
-        <item x="24"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="57"/>
-        <item x="340"/>
-        <item x="220"/>
-        <item x="27"/>
-        <item x="213"/>
-        <item x="302"/>
-        <item x="117"/>
-        <item x="128"/>
-        <item x="35"/>
-        <item x="40"/>
-        <item x="275"/>
-        <item x="230"/>
-        <item x="75"/>
-        <item x="238"/>
-        <item x="59"/>
-        <item x="145"/>
-        <item x="312"/>
-        <item x="152"/>
-        <item x="205"/>
-        <item x="265"/>
-        <item x="297"/>
-        <item x="261"/>
-        <item x="189"/>
-        <item x="219"/>
-        <item x="116"/>
-        <item x="53"/>
-        <item x="286"/>
-        <item x="262"/>
-        <item x="184"/>
-        <item x="129"/>
-        <item x="346"/>
-        <item x="163"/>
-        <item x="11"/>
-        <item x="177"/>
-        <item x="316"/>
-        <item x="166"/>
-        <item x="156"/>
-        <item x="162"/>
-        <item x="164"/>
-        <item x="236"/>
-        <item x="290"/>
-        <item x="253"/>
-        <item x="315"/>
-        <item x="307"/>
-        <item x="256"/>
-        <item x="202"/>
-        <item x="291"/>
-        <item x="37"/>
-        <item x="169"/>
-        <item x="20"/>
-        <item x="183"/>
-        <item x="245"/>
-        <item x="211"/>
-        <item x="188"/>
-        <item x="78"/>
-        <item x="126"/>
-        <item x="190"/>
-        <item x="289"/>
-        <item x="39"/>
-        <item x="203"/>
-        <item x="3"/>
-        <item x="38"/>
-        <item x="108"/>
-        <item x="30"/>
-        <item x="248"/>
-        <item x="228"/>
-        <item x="85"/>
-        <item x="0"/>
-        <item x="22"/>
-        <item x="84"/>
-        <item x="87"/>
-        <item x="25"/>
-        <item x="194"/>
-        <item x="114"/>
-        <item x="4"/>
-        <item x="98"/>
-        <item x="45"/>
-        <item x="259"/>
-        <item x="251"/>
-        <item x="207"/>
-        <item x="322"/>
-        <item x="227"/>
-        <item x="158"/>
-        <item x="134"/>
-        <item x="102"/>
-        <item x="319"/>
-        <item x="160"/>
-        <item x="181"/>
-        <item x="223"/>
-        <item x="14"/>
-        <item x="100"/>
-        <item x="44"/>
-        <item x="33"/>
-        <item x="70"/>
-        <item x="122"/>
-        <item x="280"/>
-        <item x="341"/>
-        <item x="193"/>
-        <item x="130"/>
-        <item x="86"/>
-        <item x="1"/>
-        <item x="196"/>
-        <item x="110"/>
-        <item x="151"/>
-        <item x="272"/>
-        <item x="94"/>
-        <item x="243"/>
-        <item x="155"/>
-        <item x="325"/>
-        <item x="82"/>
-        <item x="111"/>
-        <item x="268"/>
-        <item x="121"/>
-        <item x="29"/>
-        <item x="165"/>
-        <item x="50"/>
-        <item x="89"/>
-        <item x="330"/>
-        <item x="240"/>
-        <item x="231"/>
-        <item x="69"/>
-        <item x="118"/>
-        <item x="242"/>
-        <item x="43"/>
-        <item x="52"/>
-        <item x="210"/>
-        <item x="80"/>
-        <item x="174"/>
-        <item x="218"/>
-        <item x="105"/>
-        <item x="258"/>
-        <item x="310"/>
-        <item x="154"/>
-        <item x="23"/>
-        <item x="226"/>
-        <item x="311"/>
-        <item x="246"/>
-        <item x="185"/>
-        <item x="21"/>
-        <item x="332"/>
-        <item x="123"/>
-        <item x="278"/>
-        <item x="229"/>
-        <item x="131"/>
-        <item x="239"/>
-        <item x="92"/>
-        <item x="222"/>
-        <item x="9"/>
-        <item x="283"/>
-        <item x="144"/>
-        <item x="301"/>
-        <item x="232"/>
-        <item x="247"/>
-        <item x="139"/>
-        <item x="77"/>
-        <item x="296"/>
-        <item x="287"/>
-        <item x="157"/>
-        <item x="300"/>
-        <item x="304"/>
-        <item x="109"/>
-        <item x="197"/>
-        <item x="269"/>
-        <item x="41"/>
-        <item x="149"/>
-        <item x="115"/>
-        <item x="148"/>
-        <item x="187"/>
-        <item x="16"/>
-        <item x="198"/>
-        <item x="295"/>
-        <item x="284"/>
-        <item x="241"/>
-        <item x="233"/>
-        <item x="81"/>
-        <item x="120"/>
-        <item x="91"/>
-        <item x="214"/>
-        <item x="209"/>
-        <item x="127"/>
-        <item x="73"/>
-        <item x="113"/>
-        <item x="208"/>
-        <item x="336"/>
-        <item x="68"/>
-        <item x="172"/>
-        <item x="244"/>
-        <item x="303"/>
-        <item x="31"/>
-        <item x="323"/>
-        <item x="99"/>
-        <item x="225"/>
-        <item x="327"/>
-        <item x="293"/>
-        <item x="175"/>
-        <item x="337"/>
-        <item x="8"/>
-        <item x="276"/>
-        <item x="305"/>
-        <item x="137"/>
-        <item x="112"/>
-        <item x="132"/>
-        <item x="34"/>
-        <item x="270"/>
-        <item x="282"/>
-        <item x="345"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" sortType="ascending">
-      <items count="10">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item h="1" x="8"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="393">
-        <item x="372"/>
-        <item x="26"/>
-        <item x="278"/>
-        <item x="263"/>
-        <item x="267"/>
-        <item x="314"/>
-        <item x="69"/>
-        <item x="227"/>
-        <item x="46"/>
-        <item x="286"/>
-        <item x="60"/>
-        <item x="323"/>
-        <item x="309"/>
-        <item x="249"/>
-        <item x="163"/>
-        <item x="341"/>
-        <item x="238"/>
-        <item x="140"/>
-        <item x="9"/>
-        <item x="299"/>
-        <item x="210"/>
-        <item x="390"/>
-        <item x="347"/>
-        <item x="370"/>
-        <item x="103"/>
-        <item x="114"/>
-        <item x="89"/>
-        <item x="18"/>
-        <item x="202"/>
-        <item x="155"/>
-        <item x="161"/>
-        <item x="138"/>
-        <item x="281"/>
-        <item x="280"/>
-        <item x="289"/>
-        <item x="175"/>
-        <item x="207"/>
-        <item x="5"/>
-        <item x="108"/>
-        <item x="388"/>
-        <item x="156"/>
-        <item x="22"/>
-        <item x="250"/>
-        <item x="72"/>
-        <item x="0"/>
-        <item x="335"/>
-        <item x="189"/>
-        <item x="164"/>
-        <item x="228"/>
-        <item x="377"/>
-        <item x="134"/>
-        <item x="116"/>
-        <item x="284"/>
-        <item x="204"/>
-        <item x="104"/>
-        <item x="39"/>
-        <item x="355"/>
-        <item x="105"/>
-        <item x="8"/>
-        <item x="294"/>
-        <item x="252"/>
-        <item x="172"/>
-        <item x="125"/>
-        <item x="298"/>
-        <item x="271"/>
-        <item x="316"/>
-        <item x="20"/>
-        <item x="310"/>
-        <item x="131"/>
-        <item x="285"/>
-        <item x="223"/>
-        <item x="260"/>
-        <item x="30"/>
-        <item x="135"/>
-        <item x="328"/>
-        <item x="199"/>
-        <item x="389"/>
-        <item x="291"/>
-        <item x="307"/>
-        <item x="219"/>
-        <item x="225"/>
-        <item x="339"/>
-        <item x="12"/>
-        <item x="198"/>
-        <item x="185"/>
-        <item x="196"/>
-        <item x="331"/>
-        <item x="265"/>
-        <item x="31"/>
-        <item x="98"/>
-        <item x="313"/>
-        <item x="324"/>
-        <item x="120"/>
-        <item x="277"/>
-        <item x="241"/>
-        <item x="38"/>
-        <item x="170"/>
-        <item x="139"/>
-        <item x="365"/>
-        <item x="192"/>
-        <item x="24"/>
-        <item x="73"/>
-        <item x="340"/>
-        <item x="86"/>
-        <item x="203"/>
-        <item x="52"/>
-        <item x="306"/>
-        <item x="180"/>
-        <item x="186"/>
-        <item x="157"/>
-        <item x="79"/>
-        <item x="379"/>
-        <item x="75"/>
-        <item x="43"/>
-        <item x="87"/>
-        <item x="287"/>
-        <item x="99"/>
-        <item x="49"/>
-        <item x="123"/>
-        <item x="266"/>
-        <item x="110"/>
-        <item x="29"/>
-        <item x="216"/>
-        <item x="279"/>
-        <item x="205"/>
-        <item x="297"/>
-        <item x="187"/>
-        <item x="369"/>
-        <item x="122"/>
-        <item x="319"/>
-        <item x="345"/>
-        <item x="302"/>
-        <item x="176"/>
-        <item x="59"/>
-        <item x="154"/>
-        <item x="11"/>
-        <item x="16"/>
-        <item x="88"/>
-        <item x="144"/>
-        <item x="382"/>
-        <item x="64"/>
-        <item x="96"/>
-        <item x="235"/>
-        <item x="81"/>
-        <item x="317"/>
-        <item x="246"/>
-        <item x="1"/>
-        <item x="244"/>
-        <item x="160"/>
-        <item x="338"/>
-        <item x="209"/>
-        <item x="55"/>
-        <item x="321"/>
-        <item x="40"/>
-        <item x="354"/>
-        <item x="71"/>
-        <item x="63"/>
-        <item x="141"/>
-        <item x="247"/>
-        <item x="273"/>
-        <item x="115"/>
-        <item x="25"/>
-        <item x="391"/>
-        <item x="84"/>
-        <item x="102"/>
-        <item x="360"/>
-        <item x="311"/>
-        <item x="94"/>
-        <item x="53"/>
-        <item x="348"/>
-        <item x="376"/>
-        <item x="383"/>
-        <item x="13"/>
-        <item x="74"/>
-        <item x="343"/>
-        <item x="44"/>
-        <item x="159"/>
-        <item x="259"/>
-        <item x="184"/>
-        <item x="373"/>
-        <item x="188"/>
-        <item x="100"/>
-        <item x="308"/>
-        <item x="300"/>
-        <item x="127"/>
-        <item x="384"/>
-        <item x="288"/>
-        <item x="147"/>
-        <item x="283"/>
-        <item x="315"/>
-        <item x="152"/>
-        <item x="62"/>
-        <item x="293"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="386"/>
-        <item x="243"/>
-        <item x="276"/>
-        <item x="359"/>
-        <item x="256"/>
-        <item x="23"/>
-        <item x="137"/>
-        <item x="362"/>
-        <item x="356"/>
-        <item x="165"/>
-        <item x="361"/>
-        <item x="312"/>
-        <item x="349"/>
-        <item x="77"/>
-        <item x="168"/>
-        <item x="367"/>
-        <item x="151"/>
-        <item x="253"/>
-        <item x="191"/>
-        <item x="257"/>
-        <item x="111"/>
-        <item x="380"/>
-        <item x="76"/>
-        <item x="57"/>
-        <item x="333"/>
-        <item x="194"/>
-        <item x="248"/>
-        <item x="7"/>
-        <item x="93"/>
-        <item x="143"/>
-        <item x="381"/>
-        <item x="371"/>
-        <item x="149"/>
-        <item x="213"/>
-        <item x="148"/>
-        <item x="336"/>
-        <item x="117"/>
-        <item x="28"/>
-        <item x="92"/>
-        <item x="82"/>
-        <item x="190"/>
-        <item x="357"/>
-        <item x="234"/>
-        <item x="375"/>
-        <item x="224"/>
-        <item x="254"/>
-        <item x="232"/>
-        <item x="128"/>
-        <item x="95"/>
-        <item x="91"/>
-        <item x="385"/>
-        <item x="318"/>
-        <item x="240"/>
-        <item x="121"/>
-        <item x="83"/>
-        <item x="142"/>
-        <item x="130"/>
-        <item x="19"/>
-        <item x="274"/>
-        <item x="334"/>
-        <item x="242"/>
-        <item x="282"/>
-        <item x="32"/>
-        <item x="378"/>
-        <item x="262"/>
-        <item x="290"/>
-        <item x="15"/>
-        <item x="353"/>
-        <item x="211"/>
-        <item x="33"/>
-        <item x="136"/>
-        <item x="14"/>
-        <item x="85"/>
-        <item x="217"/>
-        <item x="107"/>
-        <item x="295"/>
-        <item x="90"/>
-        <item x="325"/>
-        <item x="119"/>
-        <item x="296"/>
-        <item x="251"/>
-        <item x="270"/>
-        <item x="174"/>
-        <item x="197"/>
-        <item x="179"/>
-        <item x="237"/>
-        <item x="158"/>
-        <item x="166"/>
-        <item x="351"/>
-        <item x="153"/>
-        <item x="305"/>
-        <item x="61"/>
-        <item x="374"/>
-        <item x="146"/>
-        <item x="272"/>
-        <item x="45"/>
-        <item x="229"/>
-        <item x="330"/>
-        <item x="358"/>
-        <item x="169"/>
-        <item x="27"/>
-        <item x="352"/>
-        <item x="126"/>
-        <item x="212"/>
-        <item x="150"/>
-        <item x="215"/>
-        <item x="303"/>
-        <item x="129"/>
-        <item x="221"/>
-        <item x="193"/>
-        <item x="173"/>
-        <item x="66"/>
-        <item x="258"/>
-        <item x="337"/>
-        <item x="177"/>
-        <item x="322"/>
-        <item x="167"/>
-        <item x="56"/>
-        <item x="214"/>
-        <item x="36"/>
-        <item x="320"/>
-        <item x="51"/>
-        <item x="233"/>
-        <item x="206"/>
-        <item x="327"/>
-        <item x="80"/>
-        <item x="50"/>
-        <item x="41"/>
-        <item x="65"/>
-        <item x="67"/>
-        <item x="326"/>
-        <item x="368"/>
-        <item x="350"/>
-        <item x="34"/>
-        <item x="48"/>
-        <item x="226"/>
-        <item x="239"/>
-        <item x="304"/>
-        <item x="58"/>
-        <item x="268"/>
-        <item x="112"/>
-        <item x="6"/>
-        <item x="133"/>
-        <item x="387"/>
-        <item x="195"/>
-        <item x="97"/>
-        <item x="181"/>
-        <item x="145"/>
-        <item x="68"/>
-        <item x="275"/>
-        <item x="220"/>
-        <item x="182"/>
-        <item x="230"/>
-        <item x="42"/>
-        <item x="183"/>
-        <item x="101"/>
-        <item x="106"/>
-        <item x="47"/>
-        <item x="301"/>
-        <item x="3"/>
-        <item x="109"/>
-        <item x="35"/>
-        <item x="70"/>
-        <item x="162"/>
-        <item x="245"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="292"/>
-        <item x="208"/>
-        <item x="363"/>
-        <item x="261"/>
-        <item x="124"/>
-        <item x="54"/>
-        <item x="200"/>
-        <item x="344"/>
-        <item x="264"/>
-        <item x="2"/>
-        <item x="113"/>
-        <item x="37"/>
-        <item x="118"/>
-        <item x="366"/>
-        <item x="218"/>
-        <item x="342"/>
-        <item x="236"/>
-        <item x="222"/>
-        <item x="329"/>
-        <item x="269"/>
-        <item x="364"/>
-        <item x="78"/>
-        <item x="171"/>
-        <item x="201"/>
-        <item x="178"/>
-        <item x="255"/>
-        <item x="231"/>
-        <item x="346"/>
-        <item x="332"/>
-        <item x="132"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="6">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0" sortType="ascending">
-      <items count="7">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Revenue" fld="8" baseField="3" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63856F2A-44C0-4772-B80B-006070B6EDE0}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I14:J21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
@@ -26500,14 +25588,14 @@
     <dataField name="Sum of Revenue" fld="8" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -26523,7 +25611,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1A724AF-908C-4172-B8D4-8F74924CD93F}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="I24:J35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
@@ -27652,10 +26740,10 @@
     <dataField name="Sum of Revenue" fld="8" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="3">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="10">
@@ -27706,7 +26794,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DCCCF2D-3FB5-41A5-BBDD-CEE3CF43CE34}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
@@ -28180,7 +27268,7 @@
     <dataField name="Sum of Revenue" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="4">
@@ -28192,7 +27280,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="4">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -28348,7 +27436,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3C71212-71FE-4708-9BE0-3E978C72520A}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
@@ -29243,7 +28331,7 @@
     <dataField name="Sum of Revenue" fld="8" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="8">
@@ -29259,7 +28347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="6">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -29295,7 +28383,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53E78FE5-9461-401A-9E30-45A0A1511D1D}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A17:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
@@ -30184,10 +29272,10 @@
     <dataField name="Sum of Revenue" fld="8" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="13">
+    <format dxfId="11">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="1">
@@ -30196,7 +29284,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="1">
@@ -30205,7 +29293,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="1">
@@ -30235,6 +29323,918 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F399796D-C981-4F9C-AD60-C859C3A723ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L15:M20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="348">
+        <item x="54"/>
+        <item x="36"/>
+        <item x="79"/>
+        <item x="328"/>
+        <item x="138"/>
+        <item x="200"/>
+        <item x="266"/>
+        <item x="249"/>
+        <item x="179"/>
+        <item x="161"/>
+        <item x="199"/>
+        <item x="42"/>
+        <item x="331"/>
+        <item x="206"/>
+        <item x="142"/>
+        <item x="204"/>
+        <item x="335"/>
+        <item x="135"/>
+        <item x="103"/>
+        <item x="141"/>
+        <item x="168"/>
+        <item x="65"/>
+        <item x="252"/>
+        <item x="237"/>
+        <item x="306"/>
+        <item x="159"/>
+        <item x="146"/>
+        <item x="201"/>
+        <item x="192"/>
+        <item x="140"/>
+        <item x="299"/>
+        <item x="308"/>
+        <item x="281"/>
+        <item x="338"/>
+        <item x="333"/>
+        <item x="314"/>
+        <item x="212"/>
+        <item x="133"/>
+        <item x="257"/>
+        <item x="136"/>
+        <item x="288"/>
+        <item x="234"/>
+        <item x="56"/>
+        <item x="216"/>
+        <item x="28"/>
+        <item x="71"/>
+        <item x="48"/>
+        <item x="106"/>
+        <item x="63"/>
+        <item x="170"/>
+        <item x="318"/>
+        <item x="273"/>
+        <item x="88"/>
+        <item x="67"/>
+        <item x="324"/>
+        <item x="195"/>
+        <item x="107"/>
+        <item x="255"/>
+        <item x="339"/>
+        <item x="32"/>
+        <item x="93"/>
+        <item x="326"/>
+        <item x="90"/>
+        <item x="2"/>
+        <item x="217"/>
+        <item x="279"/>
+        <item x="285"/>
+        <item x="64"/>
+        <item x="250"/>
+        <item x="46"/>
+        <item x="58"/>
+        <item x="18"/>
+        <item x="171"/>
+        <item x="47"/>
+        <item x="260"/>
+        <item x="271"/>
+        <item x="15"/>
+        <item x="221"/>
+        <item x="153"/>
+        <item x="334"/>
+        <item x="167"/>
+        <item x="62"/>
+        <item x="119"/>
+        <item x="274"/>
+        <item x="96"/>
+        <item x="191"/>
+        <item x="292"/>
+        <item x="60"/>
+        <item x="10"/>
+        <item x="150"/>
+        <item x="6"/>
+        <item x="95"/>
+        <item x="143"/>
+        <item x="298"/>
+        <item x="344"/>
+        <item x="176"/>
+        <item x="215"/>
+        <item x="74"/>
+        <item x="173"/>
+        <item x="263"/>
+        <item x="320"/>
+        <item x="7"/>
+        <item x="317"/>
+        <item x="125"/>
+        <item x="343"/>
+        <item x="55"/>
+        <item x="235"/>
+        <item x="66"/>
+        <item x="97"/>
+        <item x="186"/>
+        <item x="83"/>
+        <item x="313"/>
+        <item x="76"/>
+        <item x="309"/>
+        <item x="104"/>
+        <item x="72"/>
+        <item x="321"/>
+        <item x="124"/>
+        <item x="182"/>
+        <item x="101"/>
+        <item x="267"/>
+        <item x="49"/>
+        <item x="178"/>
+        <item x="51"/>
+        <item x="224"/>
+        <item x="147"/>
+        <item x="19"/>
+        <item x="342"/>
+        <item x="277"/>
+        <item x="254"/>
+        <item x="294"/>
+        <item x="264"/>
+        <item x="5"/>
+        <item x="329"/>
+        <item x="180"/>
+        <item x="61"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="57"/>
+        <item x="340"/>
+        <item x="220"/>
+        <item x="27"/>
+        <item x="213"/>
+        <item x="302"/>
+        <item x="117"/>
+        <item x="128"/>
+        <item x="35"/>
+        <item x="40"/>
+        <item x="275"/>
+        <item x="230"/>
+        <item x="75"/>
+        <item x="238"/>
+        <item x="59"/>
+        <item x="145"/>
+        <item x="312"/>
+        <item x="152"/>
+        <item x="205"/>
+        <item x="265"/>
+        <item x="297"/>
+        <item x="261"/>
+        <item x="189"/>
+        <item x="219"/>
+        <item x="116"/>
+        <item x="53"/>
+        <item x="286"/>
+        <item x="262"/>
+        <item x="184"/>
+        <item x="129"/>
+        <item x="346"/>
+        <item x="163"/>
+        <item x="11"/>
+        <item x="177"/>
+        <item x="316"/>
+        <item x="166"/>
+        <item x="156"/>
+        <item x="162"/>
+        <item x="164"/>
+        <item x="236"/>
+        <item x="290"/>
+        <item x="253"/>
+        <item x="315"/>
+        <item x="307"/>
+        <item x="256"/>
+        <item x="202"/>
+        <item x="291"/>
+        <item x="37"/>
+        <item x="169"/>
+        <item x="20"/>
+        <item x="183"/>
+        <item x="245"/>
+        <item x="211"/>
+        <item x="188"/>
+        <item x="78"/>
+        <item x="126"/>
+        <item x="190"/>
+        <item x="289"/>
+        <item x="39"/>
+        <item x="203"/>
+        <item x="3"/>
+        <item x="38"/>
+        <item x="108"/>
+        <item x="30"/>
+        <item x="248"/>
+        <item x="228"/>
+        <item x="85"/>
+        <item x="0"/>
+        <item x="22"/>
+        <item x="84"/>
+        <item x="87"/>
+        <item x="25"/>
+        <item x="194"/>
+        <item x="114"/>
+        <item x="4"/>
+        <item x="98"/>
+        <item x="45"/>
+        <item x="259"/>
+        <item x="251"/>
+        <item x="207"/>
+        <item x="322"/>
+        <item x="227"/>
+        <item x="158"/>
+        <item x="134"/>
+        <item x="102"/>
+        <item x="319"/>
+        <item x="160"/>
+        <item x="181"/>
+        <item x="223"/>
+        <item x="14"/>
+        <item x="100"/>
+        <item x="44"/>
+        <item x="33"/>
+        <item x="70"/>
+        <item x="122"/>
+        <item x="280"/>
+        <item x="341"/>
+        <item x="193"/>
+        <item x="130"/>
+        <item x="86"/>
+        <item x="1"/>
+        <item x="196"/>
+        <item x="110"/>
+        <item x="151"/>
+        <item x="272"/>
+        <item x="94"/>
+        <item x="243"/>
+        <item x="155"/>
+        <item x="325"/>
+        <item x="82"/>
+        <item x="111"/>
+        <item x="268"/>
+        <item x="121"/>
+        <item x="29"/>
+        <item x="165"/>
+        <item x="50"/>
+        <item x="89"/>
+        <item x="330"/>
+        <item x="240"/>
+        <item x="231"/>
+        <item x="69"/>
+        <item x="118"/>
+        <item x="242"/>
+        <item x="43"/>
+        <item x="52"/>
+        <item x="210"/>
+        <item x="80"/>
+        <item x="174"/>
+        <item x="218"/>
+        <item x="105"/>
+        <item x="258"/>
+        <item x="310"/>
+        <item x="154"/>
+        <item x="23"/>
+        <item x="226"/>
+        <item x="311"/>
+        <item x="246"/>
+        <item x="185"/>
+        <item x="21"/>
+        <item x="332"/>
+        <item x="123"/>
+        <item x="278"/>
+        <item x="229"/>
+        <item x="131"/>
+        <item x="239"/>
+        <item x="92"/>
+        <item x="222"/>
+        <item x="9"/>
+        <item x="283"/>
+        <item x="144"/>
+        <item x="301"/>
+        <item x="232"/>
+        <item x="247"/>
+        <item x="139"/>
+        <item x="77"/>
+        <item x="296"/>
+        <item x="287"/>
+        <item x="157"/>
+        <item x="300"/>
+        <item x="304"/>
+        <item x="109"/>
+        <item x="197"/>
+        <item x="269"/>
+        <item x="41"/>
+        <item x="149"/>
+        <item x="115"/>
+        <item x="148"/>
+        <item x="187"/>
+        <item x="16"/>
+        <item x="198"/>
+        <item x="295"/>
+        <item x="284"/>
+        <item x="241"/>
+        <item x="233"/>
+        <item x="81"/>
+        <item x="120"/>
+        <item x="91"/>
+        <item x="214"/>
+        <item x="209"/>
+        <item x="127"/>
+        <item x="73"/>
+        <item x="113"/>
+        <item x="208"/>
+        <item x="336"/>
+        <item x="68"/>
+        <item x="172"/>
+        <item x="244"/>
+        <item x="303"/>
+        <item x="31"/>
+        <item x="323"/>
+        <item x="99"/>
+        <item x="225"/>
+        <item x="327"/>
+        <item x="293"/>
+        <item x="175"/>
+        <item x="337"/>
+        <item x="8"/>
+        <item x="276"/>
+        <item x="305"/>
+        <item x="137"/>
+        <item x="112"/>
+        <item x="132"/>
+        <item x="34"/>
+        <item x="270"/>
+        <item x="282"/>
+        <item x="345"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending">
+      <items count="10">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="393">
+        <item x="372"/>
+        <item x="26"/>
+        <item x="278"/>
+        <item x="263"/>
+        <item x="267"/>
+        <item x="314"/>
+        <item x="69"/>
+        <item x="227"/>
+        <item x="46"/>
+        <item x="286"/>
+        <item x="60"/>
+        <item x="323"/>
+        <item x="309"/>
+        <item x="249"/>
+        <item x="163"/>
+        <item x="341"/>
+        <item x="238"/>
+        <item x="140"/>
+        <item x="9"/>
+        <item x="299"/>
+        <item x="210"/>
+        <item x="390"/>
+        <item x="347"/>
+        <item x="370"/>
+        <item x="103"/>
+        <item x="114"/>
+        <item x="89"/>
+        <item x="18"/>
+        <item x="202"/>
+        <item x="155"/>
+        <item x="161"/>
+        <item x="138"/>
+        <item x="281"/>
+        <item x="280"/>
+        <item x="289"/>
+        <item x="175"/>
+        <item x="207"/>
+        <item x="5"/>
+        <item x="108"/>
+        <item x="388"/>
+        <item x="156"/>
+        <item x="22"/>
+        <item x="250"/>
+        <item x="72"/>
+        <item x="0"/>
+        <item x="335"/>
+        <item x="189"/>
+        <item x="164"/>
+        <item x="228"/>
+        <item x="377"/>
+        <item x="134"/>
+        <item x="116"/>
+        <item x="284"/>
+        <item x="204"/>
+        <item x="104"/>
+        <item x="39"/>
+        <item x="355"/>
+        <item x="105"/>
+        <item x="8"/>
+        <item x="294"/>
+        <item x="252"/>
+        <item x="172"/>
+        <item x="125"/>
+        <item x="298"/>
+        <item x="271"/>
+        <item x="316"/>
+        <item x="20"/>
+        <item x="310"/>
+        <item x="131"/>
+        <item x="285"/>
+        <item x="223"/>
+        <item x="260"/>
+        <item x="30"/>
+        <item x="135"/>
+        <item x="328"/>
+        <item x="199"/>
+        <item x="389"/>
+        <item x="291"/>
+        <item x="307"/>
+        <item x="219"/>
+        <item x="225"/>
+        <item x="339"/>
+        <item x="12"/>
+        <item x="198"/>
+        <item x="185"/>
+        <item x="196"/>
+        <item x="331"/>
+        <item x="265"/>
+        <item x="31"/>
+        <item x="98"/>
+        <item x="313"/>
+        <item x="324"/>
+        <item x="120"/>
+        <item x="277"/>
+        <item x="241"/>
+        <item x="38"/>
+        <item x="170"/>
+        <item x="139"/>
+        <item x="365"/>
+        <item x="192"/>
+        <item x="24"/>
+        <item x="73"/>
+        <item x="340"/>
+        <item x="86"/>
+        <item x="203"/>
+        <item x="52"/>
+        <item x="306"/>
+        <item x="180"/>
+        <item x="186"/>
+        <item x="157"/>
+        <item x="79"/>
+        <item x="379"/>
+        <item x="75"/>
+        <item x="43"/>
+        <item x="87"/>
+        <item x="287"/>
+        <item x="99"/>
+        <item x="49"/>
+        <item x="123"/>
+        <item x="266"/>
+        <item x="110"/>
+        <item x="29"/>
+        <item x="216"/>
+        <item x="279"/>
+        <item x="205"/>
+        <item x="297"/>
+        <item x="187"/>
+        <item x="369"/>
+        <item x="122"/>
+        <item x="319"/>
+        <item x="345"/>
+        <item x="302"/>
+        <item x="176"/>
+        <item x="59"/>
+        <item x="154"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="88"/>
+        <item x="144"/>
+        <item x="382"/>
+        <item x="64"/>
+        <item x="96"/>
+        <item x="235"/>
+        <item x="81"/>
+        <item x="317"/>
+        <item x="246"/>
+        <item x="1"/>
+        <item x="244"/>
+        <item x="160"/>
+        <item x="338"/>
+        <item x="209"/>
+        <item x="55"/>
+        <item x="321"/>
+        <item x="40"/>
+        <item x="354"/>
+        <item x="71"/>
+        <item x="63"/>
+        <item x="141"/>
+        <item x="247"/>
+        <item x="273"/>
+        <item x="115"/>
+        <item x="25"/>
+        <item x="391"/>
+        <item x="84"/>
+        <item x="102"/>
+        <item x="360"/>
+        <item x="311"/>
+        <item x="94"/>
+        <item x="53"/>
+        <item x="348"/>
+        <item x="376"/>
+        <item x="383"/>
+        <item x="13"/>
+        <item x="74"/>
+        <item x="343"/>
+        <item x="44"/>
+        <item x="159"/>
+        <item x="259"/>
+        <item x="184"/>
+        <item x="373"/>
+        <item x="188"/>
+        <item x="100"/>
+        <item x="308"/>
+        <item x="300"/>
+        <item x="127"/>
+        <item x="384"/>
+        <item x="288"/>
+        <item x="147"/>
+        <item x="283"/>
+        <item x="315"/>
+        <item x="152"/>
+        <item x="62"/>
+        <item x="293"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="386"/>
+        <item x="243"/>
+        <item x="276"/>
+        <item x="359"/>
+        <item x="256"/>
+        <item x="23"/>
+        <item x="137"/>
+        <item x="362"/>
+        <item x="356"/>
+        <item x="165"/>
+        <item x="361"/>
+        <item x="312"/>
+        <item x="349"/>
+        <item x="77"/>
+        <item x="168"/>
+        <item x="367"/>
+        <item x="151"/>
+        <item x="253"/>
+        <item x="191"/>
+        <item x="257"/>
+        <item x="111"/>
+        <item x="380"/>
+        <item x="76"/>
+        <item x="57"/>
+        <item x="333"/>
+        <item x="194"/>
+        <item x="248"/>
+        <item x="7"/>
+        <item x="93"/>
+        <item x="143"/>
+        <item x="381"/>
+        <item x="371"/>
+        <item x="149"/>
+        <item x="213"/>
+        <item x="148"/>
+        <item x="336"/>
+        <item x="117"/>
+        <item x="28"/>
+        <item x="92"/>
+        <item x="82"/>
+        <item x="190"/>
+        <item x="357"/>
+        <item x="234"/>
+        <item x="375"/>
+        <item x="224"/>
+        <item x="254"/>
+        <item x="232"/>
+        <item x="128"/>
+        <item x="95"/>
+        <item x="91"/>
+        <item x="385"/>
+        <item x="318"/>
+        <item x="240"/>
+        <item x="121"/>
+        <item x="83"/>
+        <item x="142"/>
+        <item x="130"/>
+        <item x="19"/>
+        <item x="274"/>
+        <item x="334"/>
+        <item x="242"/>
+        <item x="282"/>
+        <item x="32"/>
+        <item x="378"/>
+        <item x="262"/>
+        <item x="290"/>
+        <item x="15"/>
+        <item x="353"/>
+        <item x="211"/>
+        <item x="33"/>
+        <item x="136"/>
+        <item x="14"/>
+        <item x="85"/>
+        <item x="217"/>
+        <item x="107"/>
+        <item x="295"/>
+        <item x="90"/>
+        <item x="325"/>
+        <item x="119"/>
+        <item x="296"/>
+        <item x="251"/>
+        <item x="270"/>
+        <item x="174"/>
+        <item x="197"/>
+        <item x="179"/>
+        <item x="237"/>
+        <item x="158"/>
+        <item x="166"/>
+        <item x="351"/>
+        <item x="153"/>
+        <item x="305"/>
+        <item x="61"/>
+        <item x="374"/>
+        <item x="146"/>
+        <item x="272"/>
+        <item x="45"/>
+        <item x="229"/>
+        <item x="330"/>
+        <item x="358"/>
+        <item x="169"/>
+        <item x="27"/>
+        <item x="352"/>
+        <item x="126"/>
+        <item x="212"/>
+        <item x="150"/>
+        <item x="215"/>
+        <item x="303"/>
+        <item x="129"/>
+        <item x="221"/>
+        <item x="193"/>
+        <item x="173"/>
+        <item x="66"/>
+        <item x="258"/>
+        <item x="337"/>
+        <item x="177"/>
+        <item x="322"/>
+        <item x="167"/>
+        <item x="56"/>
+        <item x="214"/>
+        <item x="36"/>
+        <item x="320"/>
+        <item x="51"/>
+        <item x="233"/>
+        <item x="206"/>
+        <item x="327"/>
+        <item x="80"/>
+        <item x="50"/>
+        <item x="41"/>
+        <item x="65"/>
+        <item x="67"/>
+        <item x="326"/>
+        <item x="368"/>
+        <item x="350"/>
+        <item x="34"/>
+        <item x="48"/>
+        <item x="226"/>
+        <item x="239"/>
+        <item x="304"/>
+        <item x="58"/>
+        <item x="268"/>
+        <item x="112"/>
+        <item x="6"/>
+        <item x="133"/>
+        <item x="387"/>
+        <item x="195"/>
+        <item x="97"/>
+        <item x="181"/>
+        <item x="145"/>
+        <item x="68"/>
+        <item x="275"/>
+        <item x="220"/>
+        <item x="182"/>
+        <item x="230"/>
+        <item x="42"/>
+        <item x="183"/>
+        <item x="101"/>
+        <item x="106"/>
+        <item x="47"/>
+        <item x="301"/>
+        <item x="3"/>
+        <item x="109"/>
+        <item x="35"/>
+        <item x="70"/>
+        <item x="162"/>
+        <item x="245"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="292"/>
+        <item x="208"/>
+        <item x="363"/>
+        <item x="261"/>
+        <item x="124"/>
+        <item x="54"/>
+        <item x="200"/>
+        <item x="344"/>
+        <item x="264"/>
+        <item x="2"/>
+        <item x="113"/>
+        <item x="37"/>
+        <item x="118"/>
+        <item x="366"/>
+        <item x="218"/>
+        <item x="342"/>
+        <item x="236"/>
+        <item x="222"/>
+        <item x="329"/>
+        <item x="269"/>
+        <item x="364"/>
+        <item x="78"/>
+        <item x="171"/>
+        <item x="201"/>
+        <item x="178"/>
+        <item x="255"/>
+        <item x="231"/>
+        <item x="346"/>
+        <item x="332"/>
+        <item x="132"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending">
+      <items count="7">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Revenue" fld="8" baseField="3" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
